--- a/AppTutorias/Content/Horaios_Estudiantes.xlsx
+++ b/AppTutorias/Content/Horaios_Estudiantes.xlsx
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +72,17 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -119,6 +130,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +415,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,12 +442,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>501735</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1713980074</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>504789</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1500829427</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -447,11 +460,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>504789</v>
       </c>
-      <c r="B3" s="4">
-        <v>1713980074</v>
+      <c r="B3" s="5">
+        <v>1500829427</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
